--- a/exercices/exercices_gini_afc2022.xlsx
+++ b/exercices/exercices_gini_afc2022.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\Documents\GitHub\les-mesures-de-l-conomie\exercices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F5BE6A-1333-49A2-B999-AB308F7F547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40A48EC-71E7-4CFC-81FF-939C9990F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
+    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="2" r:id="rId1"/>
     <sheet name="CH" sheetId="1" r:id="rId2"/>
     <sheet name="GE" sheetId="3" r:id="rId3"/>
+    <sheet name="alpha coef GE" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>seuil inférieur du groupe</t>
   </si>
@@ -112,6 +113,114 @@
   <si>
     <t>https://www.estv.admin.ch/fr/statistiques-personnes-physiques-cantons-1983-a-aujourdhui</t>
   </si>
+  <si>
+    <t>RAPPORT DÉTAILLÉ</t>
+  </si>
+  <si>
+    <t>Statistiques de la régression</t>
+  </si>
+  <si>
+    <t>Coefficient de détermination multiple</t>
+  </si>
+  <si>
+    <t>Coefficient de détermination R^2</t>
+  </si>
+  <si>
+    <t>Erreur-type</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANALYSE DE VARIANCE</t>
+  </si>
+  <si>
+    <t>Régression</t>
+  </si>
+  <si>
+    <t>Résidus</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>Degré de liberté</t>
+  </si>
+  <si>
+    <t>Somme des carrés</t>
+  </si>
+  <si>
+    <t>Moyenne des carrés</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Valeur critique de F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Statistique t</t>
+  </si>
+  <si>
+    <t>Probabilité</t>
+  </si>
+  <si>
+    <t>Limite inférieure pour seuil de confiance = 95%</t>
+  </si>
+  <si>
+    <t>Limite supérieure pour seuil de confiance = 95%</t>
+  </si>
+  <si>
+    <t>Limite inférieure pour seuil de confiance =  95,0%</t>
+  </si>
+  <si>
+    <t>Limite supérieure pour seuil de confiance =  95,0%</t>
+  </si>
+  <si>
+    <t>Variable X 1</t>
+  </si>
+  <si>
+    <t>Distribution empirique de Parto</t>
+  </si>
+  <si>
+    <t>Log de l'inverse de la distribution relative cumulée des personnes</t>
+  </si>
+  <si>
+    <t>Log du revenu moyen</t>
+  </si>
+  <si>
+    <t>ANALYSE DES RÉSIDUS</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Prévisions pour Y</t>
+  </si>
+  <si>
+    <t>b = y_bar / s</t>
+  </si>
+  <si>
+    <t>a = b/(b-1)</t>
+  </si>
+  <si>
+    <t>k=s*p^(1/a)</t>
+  </si>
+  <si>
+    <t>total I top group</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Part du 1%: interpolation de Pareto</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +257,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,13 +325,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +371,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,32 +414,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1237,7 +1378,1009 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11813138686131387"/>
+          <c:y val="7.1111091202494155E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GE!$B$39:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Distribution empirique de Parto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Log de l'inverse de la distribution relative cumulée des personnes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GE!$A$41:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.7722955399279523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3556337674688406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4411644681101272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5132945165813325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5754529919949274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6293191283530346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6777428199808533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7206670746380448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7602077624282391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7962260987499015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8294456902556702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8604106341962865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8894698346845153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9165395418021651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9422183364895664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9660900441380562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9891731407867042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0388419486119664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1252609204754087</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2336646233210313</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3774547831689601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5336034482383756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6472789075972889</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8245416234964953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1265719146621898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GE!$B$41:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-0.14348627768580327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16857623963281418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19779924270011631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22435184467592204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25392300720752736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28671436190716915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.32247658683007402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.36019297580706788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.40271968167192423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.44523318400886275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.48873371805696725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.53355581515285122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.5775706703629786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.6214935843787982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.66528184659785017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.70811319938648543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.75001421149432579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.9107223451647557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1218845185959989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4214711793857677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8489367956084217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.148012707067251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.380219908101866</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.0506155437199589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6135905717572601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47F2-4D88-8778-FEC6A4ECED39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1717047199"/>
+        <c:axId val="1717036159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1717047199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717036159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1717036159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717047199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Variable X 1 Courbe de régression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>GE!$A$41:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.7722955399279523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3556337674688406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4411644681101272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5132945165813325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5754529919949274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6293191283530346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6777428199808533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7206670746380448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7602077624282391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7962260987499015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8294456902556702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8604106341962865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8894698346845153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9165395418021651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9422183364895664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9660900441380562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9891731407867042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0388419486119664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1252609204754087</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2336646233210313</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3774547831689601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5336034482383756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6472789075972889</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8245416234964953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1265719146621898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GE!$B$41:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-0.14348627768580327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16857623963281418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19779924270011631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22435184467592204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25392300720752736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28671436190716915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.32247658683007402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.36019297580706788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.40271968167192423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.44523318400886275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.48873371805696725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.53355581515285122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.5775706703629786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.6214935843787982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.66528184659785017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.70811319938648543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.75001421149432579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.9107223451647557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1218845185959989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4214711793857677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8489367956084217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.148012707067251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.380219908101866</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.0506155437199589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6135905717572601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D531-4565-A490-D1D3594E58FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prévisions pour Y</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>GE!$A$41:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.7722955399279523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3556337674688406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4411644681101272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5132945165813325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5754529919949274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6293191283530346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6777428199808533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7206670746380448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7602077624282391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7962260987499015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8294456902556702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8604106341962865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8894698346845153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9165395418021651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9422183364895664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9660900441380562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9891731407867042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0388419486119664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1252609204754087</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2336646233210313</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3774547831689601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5336034482383756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6472789075972889</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8245416234964953</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1265719146621898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'alpha coef GE'!$B$25:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.1075466481673946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3257032634299399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6927207554209112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19358110426248842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.30272581290247125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.39730991779319957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.48233757779971853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.55770871965888524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.62713862152776834</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.69038359009186223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.74871421374231595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.8030858784584165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.85411122857350108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.90164320674166909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.94673286741518936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.98864944530254562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0291812929944584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1163952653853872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2681392301824932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4584864110593436</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.710969037080547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9851520899968698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.1847560025556909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.4960134352841568</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.0263515413973447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D531-4565-A490-D1D3594E58FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="239571519"/>
+        <c:axId val="239578239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="239571519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Variable X 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="239578239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239578239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="239571519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1793,20 +2936,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>578641</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502441</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1138238</xdr:rowOff>
+      <xdr:rowOff>1366838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>581023</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1814,6 +3473,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4ED8B6-39B5-A24D-04D3-28586D713EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3981448</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14139A-4790-4DA2-5077-D533C124D08D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545652EF-6576-48D0-EA9B-A5AA556031AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +3881,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2161,7 +3897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB256E1-B0FC-48AE-8D60-3C9A253EE1A6}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2180,26 +3916,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,9 +4000,9 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="18"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="2"/>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
@@ -2278,7 +4014,7 @@
       <c r="B4" s="1">
         <v>20000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>6349766510</v>
       </c>
       <c r="D4" s="1">
@@ -2296,24 +4032,24 @@
         <f>SUM($C$4:C4)/$C$32</f>
         <v>1.9104146904600303E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="13">
         <f>H3+1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="13">
         <f>I3+1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="13">
         <f>F4*G4/2</f>
         <v>1.6520606133099216E-3</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15">
         <f>SUM(D4:$D$29)</f>
         <v>4798463</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="16">
         <f>L4/$D$32</f>
         <v>1</v>
       </c>
@@ -2321,7 +4057,7 @@
         <f>SUM(C4:$C$29)</f>
         <v>332376344346</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="17">
         <f>N4/C$32</f>
         <v>1</v>
       </c>
@@ -2351,11 +4087,11 @@
         <f>SUM($C$4:C5)/$C$32</f>
         <v>3.1595535818481547E-2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="13">
         <f t="shared" ref="H5:H29" si="0">H4+1/26</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="13">
         <f t="shared" ref="I5:I29" si="1">I4+1/26</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -2367,11 +4103,11 @@
         <f>(F5-F4)*G4</f>
         <v>7.315370077235091E-4</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="18">
         <f>SUM(D5:$D$29)</f>
         <v>3968554</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <f t="shared" ref="M5:M29" si="2">L5/$D$32</f>
         <v>0.82704691064617986</v>
       </c>
@@ -2379,7 +4115,7 @@
         <f>SUM(C5:$C$29)</f>
         <v>326026577836</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="17">
         <f t="shared" ref="O5:O29" si="3">N5/C$32</f>
         <v>0.98089585309539973</v>
       </c>
@@ -2409,11 +4145,11 @@
         <f>SUM($C$4:C6)/$C$32</f>
         <v>4.7517082050698198E-2</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="13">
         <f t="shared" si="1"/>
         <v>0.11538461538461539</v>
       </c>
@@ -2425,11 +4161,11 @@
         <f t="shared" ref="K6:K29" si="5">(F6-F5)*G5</f>
         <v>1.2645423050813864E-3</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="18">
         <f>SUM(D6:$D$29)</f>
         <v>3784811</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="16">
         <f t="shared" si="2"/>
         <v>0.78875485754500974</v>
       </c>
@@ -2437,7 +4173,7 @@
         <f>SUM(C6:$C$29)</f>
         <v>321874735653</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="17">
         <f t="shared" si="3"/>
         <v>0.96840446418151849</v>
       </c>
@@ -2467,11 +4203,11 @@
         <f>SUM($C$4:C7)/$C$32</f>
         <v>6.5893633465686122E-2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="13">
         <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
@@ -2483,11 +4219,11 @@
         <f t="shared" si="5"/>
         <v>1.855433322452893E-3</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="18">
         <f>SUM(D7:$D$29)</f>
         <v>3592763</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="16">
         <f t="shared" si="2"/>
         <v>0.74873204190591858</v>
       </c>
@@ -2495,7 +4231,7 @@
         <f>SUM(C7:$C$29)</f>
         <v>316582790320</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="17">
         <f t="shared" si="3"/>
         <v>0.95248291794930184</v>
       </c>
@@ -2525,11 +4261,11 @@
         <f>SUM($C$4:C8)/$C$32</f>
         <v>8.9950156470453402E-2</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="13">
         <f t="shared" si="1"/>
         <v>0.19230769230769232</v>
       </c>
@@ -2541,11 +4277,11 @@
         <f t="shared" si="5"/>
         <v>2.9191853117346307E-3</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="18">
         <f>SUM(D8:$D$29)</f>
         <v>3405394</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="16">
         <f t="shared" si="2"/>
         <v>0.70968433016988985</v>
       </c>
@@ -2553,7 +4289,7 @@
         <f>SUM(C8:$C$29)</f>
         <v>310474859339</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="17">
         <f t="shared" si="3"/>
         <v>0.93410636653431389</v>
       </c>
@@ -2583,11 +4319,11 @@
         <f>SUM($C$4:C9)/$C$32</f>
         <v>0.12155531081640955</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="13">
         <f t="shared" si="1"/>
         <v>0.23076923076923078</v>
       </c>
@@ -2599,11 +4335,11 @@
         <f t="shared" si="5"/>
         <v>4.6239067167842783E-3</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="18">
         <f>SUM(D9:$D$29)</f>
         <v>3192815</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="16">
         <f t="shared" si="2"/>
         <v>0.66538285280099063</v>
       </c>
@@ -2611,7 +4347,7 @@
         <f>SUM(C9:$C$29)</f>
         <v>302479040165</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="17">
         <f t="shared" si="3"/>
         <v>0.91004984352954654</v>
       </c>
@@ -2641,11 +4377,11 @@
         <f>SUM($C$4:C10)/$C$32</f>
         <v>0.15962232760093983</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>0.26923076923076927</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="13">
         <f t="shared" si="1"/>
         <v>0.26923076923076927</v>
       </c>
@@ -2657,11 +4393,11 @@
         <f t="shared" si="5"/>
         <v>6.7376638485642021E-3</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="18">
         <f>SUM(D10:$D$29)</f>
         <v>2946149</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="16">
         <f t="shared" si="2"/>
         <v>0.61397764242425124</v>
       </c>
@@ -2669,7 +4405,7 @@
         <f>SUM(C10:$C$29)</f>
         <v>291974234501</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="17">
         <f t="shared" si="3"/>
         <v>0.87844468918359042</v>
       </c>
@@ -2699,11 +4435,11 @@
         <f>SUM($C$4:C11)/$C$32</f>
         <v>0.20135202536355054</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="13">
         <f t="shared" si="1"/>
         <v>0.30769230769230771</v>
       </c>
@@ -2715,11 +4451,11 @@
         <f t="shared" si="5"/>
         <v>8.7842356105006496E-3</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="18">
         <f>SUM(D11:$D$29)</f>
         <v>2680176</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="16">
         <f t="shared" si="2"/>
         <v>0.55854885199698323</v>
       </c>
@@ -2727,7 +4463,7 @@
         <f>SUM(C11:$C$29)</f>
         <v>279321658622</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="17">
         <f t="shared" si="3"/>
         <v>0.84037767239906014</v>
       </c>
@@ -2757,11 +4493,11 @@
         <f>SUM($C$4:C12)/$C$32</f>
         <v>0.24431910148053615</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>0.34615384615384615</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>0.34615384615384615</v>
       </c>
@@ -2773,11 +4509,11 @@
         <f t="shared" si="5"/>
         <v>1.0418227566876508E-2</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="18">
         <f>SUM(D12:$D$29)</f>
         <v>2416110</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="16">
         <f t="shared" si="2"/>
         <v>0.50351748049323297</v>
       </c>
@@ -2785,7 +4521,7 @@
         <f>SUM(C12:$C$29)</f>
         <v>265451694229</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="17">
         <f t="shared" si="3"/>
         <v>0.79864797463644943</v>
       </c>
@@ -2815,11 +4551,11 @@
         <f>SUM($C$4:C13)/$C$32</f>
         <v>0.28651935245988597</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <f t="shared" si="0"/>
         <v>0.38461538461538458</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="13">
         <f t="shared" si="1"/>
         <v>0.38461538461538458</v>
       </c>
@@ -2831,11 +4567,11 @@
         <f t="shared" si="5"/>
         <v>1.1426849461956733E-2</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="18">
         <f>SUM(D13:$D$29)</f>
         <v>2167831</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="16">
         <f t="shared" si="2"/>
         <v>0.45177612081201834</v>
       </c>
@@ -2843,7 +4579,7 @@
         <f>SUM(C13:$C$29)</f>
         <v>251170454542</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="17">
         <f t="shared" si="3"/>
         <v>0.75568089851946385</v>
       </c>
@@ -2873,11 +4609,11 @@
         <f>SUM($C$4:C14)/$C$32</f>
         <v>0.32735834099172234</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>0.42307692307692302</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <f t="shared" si="1"/>
         <v>0.42307692307692302</v>
       </c>
@@ -2889,11 +4625,11 @@
         <f t="shared" si="5"/>
         <v>1.2008707698688111E-2</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="18">
         <f>SUM(D14:$D$29)</f>
         <v>1943406</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="16">
         <f t="shared" si="2"/>
         <v>0.40500593627584497</v>
       </c>
@@ -2901,7 +4637,7 @@
         <f>SUM(C14:$C$29)</f>
         <v>237144089391</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="17">
         <f t="shared" si="3"/>
         <v>0.71348064754011409</v>
       </c>
@@ -2931,11 +4667,11 @@
         <f>SUM($C$4:C15)/$C$32</f>
         <v>0.36630096348030072</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>0.46153846153846145</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="13">
         <f t="shared" si="1"/>
         <v>0.46153846153846145</v>
       </c>
@@ -2947,11 +4683,11 @@
         <f t="shared" si="5"/>
         <v>1.2180607622142148E-2</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="18">
         <f>SUM(D15:$D$29)</f>
         <v>1742291</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="16">
         <f t="shared" si="2"/>
         <v>0.36309355724947762</v>
       </c>
@@ -2959,7 +4695,7 @@
         <f>SUM(C15:$C$29)</f>
         <v>223570175676</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="17">
         <f t="shared" si="3"/>
         <v>0.67264165900827766</v>
       </c>
@@ -2989,11 +4725,11 @@
         <f>SUM($C$4:C16)/$C$32</f>
         <v>0.40351633340483267</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <f t="shared" si="0"/>
         <v>0.49999999999999989</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <f t="shared" si="1"/>
         <v>0.49999999999999989</v>
       </c>
@@ -3005,11 +4741,11 @@
         <f t="shared" si="5"/>
         <v>1.2184553321742418E-2</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="18">
         <f>SUM(D16:$D$29)</f>
         <v>1563746</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="16">
         <f t="shared" si="2"/>
         <v>0.32588476768498581</v>
       </c>
@@ -3017,7 +4753,7 @@
         <f>SUM(C16:$C$29)</f>
         <v>210626569174</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="17">
         <f t="shared" si="3"/>
         <v>0.63369903651969928</v>
       </c>
@@ -3047,11 +4783,11 @@
         <f>SUM($C$4:C17)/$C$32</f>
         <v>0.43904494627960178</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="13">
         <f t="shared" si="0"/>
         <v>0.53846153846153832</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="13">
         <f t="shared" si="1"/>
         <v>0.53846153846153832</v>
       </c>
@@ -3063,11 +4799,11 @@
         <f t="shared" si="5"/>
         <v>1.2037888617022138E-2</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="18">
         <f>SUM(D17:$D$29)</f>
         <v>1404131</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="16">
         <f t="shared" si="2"/>
         <v>0.29262099134660413</v>
       </c>
@@ -3075,7 +4811,7 @@
         <f>SUM(C17:$C$29)</f>
         <v>198257060565</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="17">
         <f t="shared" si="3"/>
         <v>0.59648366659516738</v>
       </c>
@@ -3105,11 +4841,11 @@
         <f>SUM($C$4:C18)/$C$32</f>
         <v>0.47291786350586495</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="13">
         <f t="shared" si="0"/>
         <v>0.57692307692307676</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="13">
         <f t="shared" si="1"/>
         <v>0.57692307692307676</v>
       </c>
@@ -3121,11 +4857,11 @@
         <f t="shared" si="5"/>
         <v>1.1773101371770267E-2</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="18">
         <f>SUM(D18:$D$29)</f>
         <v>1260981</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="16">
         <f t="shared" si="2"/>
         <v>0.26278852207467268</v>
       </c>
@@ -3133,7 +4869,7 @@
         <f>SUM(C18:$C$29)</f>
         <v>186448190098</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="17">
         <f t="shared" si="3"/>
         <v>0.56095505372039822</v>
       </c>
@@ -3163,11 +4899,11 @@
         <f>SUM($C$4:C19)/$C$32</f>
         <v>0.50549146950752899</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="13">
         <f t="shared" si="0"/>
         <v>0.6153846153846152</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="13">
         <f t="shared" si="1"/>
         <v>0.6153846153846152</v>
       </c>
@@ -3179,11 +4915,11 @@
         <f t="shared" si="5"/>
         <v>1.1536682964608861E-2</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="18">
         <f>SUM(D19:$D$29)</f>
         <v>1132309</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="16">
         <f t="shared" si="2"/>
         <v>0.23597326894049198</v>
       </c>
@@ -3191,7 +4927,7 @@
         <f>SUM(C19:$C$29)</f>
         <v>175189633698</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="17">
         <f t="shared" si="3"/>
         <v>0.52708213649413505</v>
       </c>
@@ -3221,11 +4957,11 @@
         <f>SUM($C$4:C20)/$C$32</f>
         <v>0.5364731111832084</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <f t="shared" si="0"/>
         <v>0.65384615384615363</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="13">
         <f t="shared" si="1"/>
         <v>0.65384615384615363</v>
       </c>
@@ -3237,11 +4973,11 @@
         <f t="shared" si="5"/>
         <v>1.112669202457625E-2</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="18">
         <f>SUM(D20:$D$29)</f>
         <v>1015252</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="16">
         <f t="shared" si="2"/>
         <v>0.21157858255862347</v>
       </c>
@@ -3249,7 +4985,7 @@
         <f>SUM(C20:$C$29)</f>
         <v>164362937613</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="17">
         <f t="shared" si="3"/>
         <v>0.49450853049247107</v>
       </c>
@@ -3279,11 +5015,11 @@
         <f>SUM($C$4:C21)/$C$32</f>
         <v>0.64237119451178382</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="13">
         <f t="shared" si="0"/>
         <v>0.69230769230769207</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="13">
         <f t="shared" si="1"/>
         <v>0.69230769230769207</v>
       </c>
@@ -3295,11 +5031,11 @@
         <f t="shared" si="5"/>
         <v>3.6018490991271523E-2</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="18">
         <f>SUM(D21:$D$29)</f>
         <v>909630</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="16">
         <f t="shared" si="2"/>
         <v>0.18956695091740836</v>
       </c>
@@ -3307,7 +5043,7 @@
         <f>SUM(C21:$C$29)</f>
         <v>154065372811</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="17">
         <f t="shared" si="3"/>
         <v>0.46352688881679166</v>
       </c>
@@ -3337,11 +5073,11 @@
         <f>SUM($C$4:C22)/$C$32</f>
         <v>0.74720654108725182</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="13">
         <f t="shared" si="0"/>
         <v>0.7307692307692305</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="13">
         <f t="shared" si="1"/>
         <v>0.7307692307692305</v>
       </c>
@@ -3353,11 +5089,11 @@
         <f t="shared" si="5"/>
         <v>3.5026334227614329E-2</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="18">
         <f>SUM(D22:$D$29)</f>
         <v>587464</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="16">
         <f t="shared" si="2"/>
         <v>0.12242753565047808</v>
       </c>
@@ -3365,7 +5101,7 @@
         <f>SUM(C22:$C$29)</f>
         <v>118867355001</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="17">
         <f t="shared" si="3"/>
         <v>0.35762880548821618</v>
       </c>
@@ -3395,11 +5131,11 @@
         <f>SUM($C$4:C23)/$C$32</f>
         <v>0.83784527626943728</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="13">
         <f t="shared" si="0"/>
         <v>0.76923076923076894</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="13">
         <f t="shared" si="1"/>
         <v>0.76923076923076894</v>
       </c>
@@ -3411,11 +5147,11 @@
         <f t="shared" si="5"/>
         <v>2.7512392798660114E-2</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="18">
         <f>SUM(D23:$D$29)</f>
         <v>325820</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="16">
         <f t="shared" si="2"/>
         <v>6.7900909103602552E-2</v>
       </c>
@@ -3423,7 +5159,7 @@
         <f>SUM(C23:$C$29)</f>
         <v>84022565748</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="17">
         <f t="shared" si="3"/>
         <v>0.25279345891274818</v>
       </c>
@@ -3453,11 +5189,11 @@
         <f>SUM($C$4:C24)/$C$32</f>
         <v>0.90594312610148842</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="13">
         <f t="shared" si="0"/>
         <v>0.80769230769230738</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="13">
         <f t="shared" si="1"/>
         <v>0.80769230769230738</v>
       </c>
@@ -3469,11 +5205,11 @@
         <f t="shared" si="5"/>
         <v>1.6625904870184335E-2</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="18">
         <f>SUM(D24:$D$29)</f>
         <v>149139</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="16">
         <f t="shared" si="2"/>
         <v>3.1080577259843412E-2</v>
       </c>
@@ -3481,7 +5217,7 @@
         <f>SUM(C24:$C$29)</f>
         <v>53896394292</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="17">
         <f t="shared" si="3"/>
         <v>0.16215472373056269</v>
       </c>
@@ -3511,11 +5247,11 @@
         <f>SUM($C$4:C25)/$C$32</f>
         <v>0.93329231700701554</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="13">
         <f t="shared" si="0"/>
         <v>0.84615384615384581</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="13">
         <f t="shared" si="1"/>
         <v>0.84615384615384581</v>
       </c>
@@ -3527,11 +5263,11 @@
         <f t="shared" si="5"/>
         <v>5.0239309098685462E-3</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="18">
         <f>SUM(D25:$D$29)</f>
         <v>53920</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="16">
         <f t="shared" si="2"/>
         <v>1.1236931492438307E-2</v>
       </c>
@@ -3539,7 +5275,7 @@
         <f>SUM(C25:$C$29)</f>
         <v>31262279907</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="17">
         <f t="shared" si="3"/>
         <v>9.4056873898511625E-2</v>
       </c>
@@ -3569,11 +5305,11 @@
         <f>SUM($C$4:C26)/$C$32</f>
         <v>0.9477800576417319</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="13">
         <f t="shared" si="0"/>
         <v>0.88461538461538425</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="13">
         <f t="shared" si="1"/>
         <v>0.88461538461538425</v>
       </c>
@@ -3585,11 +5321,11 @@
         <f t="shared" si="5"/>
         <v>2.1120557291739415E-3</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="18">
         <f>SUM(D26:$D$29)</f>
         <v>27310</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="16">
         <f t="shared" si="2"/>
         <v>5.6914057688889127E-3</v>
       </c>
@@ -3597,7 +5333,7 @@
         <f>SUM(C26:$C$29)</f>
         <v>22172055813</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="17">
         <f t="shared" si="3"/>
         <v>6.6707682992984421E-2</v>
       </c>
@@ -3627,11 +5363,11 @@
         <f>SUM($C$4:C27)/$C$32</f>
         <v>0.97266559248409601</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="13">
         <f t="shared" si="0"/>
         <v>0.92307692307692268</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="13">
         <f t="shared" si="1"/>
         <v>0.92307692307692268</v>
       </c>
@@ -3643,11 +5379,11 @@
         <f t="shared" si="5"/>
         <v>2.4758809274009956E-3</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="18">
         <f>SUM(D27:$D$29)</f>
         <v>16451</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="16">
         <f t="shared" si="2"/>
         <v>3.4283894655434458E-3</v>
       </c>
@@ -3655,7 +5391,7 @@
         <f>SUM(C27:$C$29)</f>
         <v>17356673543</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="17">
         <f t="shared" si="3"/>
         <v>5.2219942358268129E-2</v>
       </c>
@@ -3685,11 +5421,11 @@
         <f>SUM($C$4:C28)/$C$32</f>
         <v>0.98392661455642405</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <f t="shared" si="0"/>
         <v>0.96153846153846112</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="13">
         <f t="shared" si="1"/>
         <v>0.96153846153846112</v>
       </c>
@@ -3701,11 +5437,11 @@
         <f t="shared" si="5"/>
         <v>5.6696189220960236E-4</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="18">
         <f>SUM(D28:$D$29)</f>
         <v>3916</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="16">
         <f t="shared" si="2"/>
         <v>8.1609465364221832E-4</v>
       </c>
@@ -3713,7 +5449,7 @@
         <f>SUM(C28:$C$29)</f>
         <v>9085310445</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="17">
         <f t="shared" si="3"/>
         <v>2.7334407515904005E-2</v>
       </c>
@@ -3743,11 +5479,11 @@
         <f>SUM($C$4:C29)/$C$32</f>
         <v>1</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="13">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="13">
         <f t="shared" si="1"/>
         <v>0.99999999999999956</v>
       </c>
@@ -3759,11 +5495,11 @@
         <f t="shared" si="5"/>
         <v>2.294513642574168E-4</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="18">
         <f>SUM(D29:$D$29)</f>
         <v>1119</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="16">
         <f t="shared" si="2"/>
         <v>2.3319967247845821E-4</v>
       </c>
@@ -3771,7 +5507,7 @@
         <f>SUM(C29:$C$29)</f>
         <v>5342413095</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="17">
         <f t="shared" si="3"/>
         <v>1.6073385443575998E-2</v>
       </c>
@@ -3792,8 +5528,8 @@
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
@@ -3872,37 +5608,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988134C0-BA93-4AA9-AB60-815506C21888}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C30"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.265625" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -3969,27 +5709,27 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="18"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="2"/>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="27">
+      <c r="A4" s="20">
         <v>0</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="20">
         <v>20000</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="21">
         <v>417323015</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="20">
         <v>70498</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="20">
         <f>C4/D4</f>
         <v>5919.6433232148429</v>
       </c>
@@ -4001,24 +5741,24 @@
         <f>SUM($C$4:C4)/$C$32</f>
         <v>2.5897284949558209E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="13">
         <f>H3+1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="13">
         <f>I3+1/26</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="13">
         <f>F4*G4/2</f>
         <v>3.6431800019435167E-3</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15">
         <f>SUM(D4:$D$29)</f>
         <v>250565</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="16">
         <f>L4/$D$32</f>
         <v>1</v>
       </c>
@@ -4026,7 +5766,7 @@
         <f>SUM(C4:$C$29)</f>
         <v>16114546981</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="17">
         <f>N4/C$32</f>
         <v>1</v>
       </c>
@@ -4056,11 +5796,11 @@
         <f>SUM($C$4:C5)/$C$32</f>
         <v>4.0123222561722724E-2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="13">
         <f t="shared" ref="H5:I29" si="0">H4+1/26</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -4072,11 +5812,11 @@
         <f>(F5-F4)*G4</f>
         <v>1.0447179624853218E-3</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="18">
         <f>SUM(D5:$D$29)</f>
         <v>180067</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <f t="shared" ref="M5:M29" si="1">L5/$D$32</f>
         <v>0.71864386486540421</v>
       </c>
@@ -4084,7 +5824,7 @@
         <f>SUM(C5:$C$29)</f>
         <v>15697223966</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="17">
         <f t="shared" ref="O5:O29" si="2">N5/C$32</f>
         <v>0.97410271505044177</v>
       </c>
@@ -4114,11 +5854,11 @@
         <f>SUM($C$4:C6)/$C$32</f>
         <v>5.9077249526311083E-2</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>0.11538461538461539</v>
       </c>
@@ -4130,11 +5870,11 @@
         <f t="shared" ref="K6:K29" si="4">(F6-F5)*G5</f>
         <v>1.7710487958519879E-3</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="18">
         <f>SUM(D6:$D$29)</f>
         <v>169959</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
         <v>0.67830303514058232</v>
       </c>
@@ -4142,7 +5882,7 @@
         <f>SUM(C6:$C$29)</f>
         <v>15467979426</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="17">
         <f t="shared" si="2"/>
         <v>0.95987677743827726</v>
       </c>
@@ -4172,11 +5912,11 @@
         <f>SUM($C$4:C7)/$C$32</f>
         <v>7.8145537102890031E-2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
@@ -4188,11 +5928,11 @@
         <f t="shared" si="4"/>
         <v>2.2219543812422153E-3</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="18">
         <f>SUM(D7:$D$29)</f>
         <v>158899</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
         <v>0.63416279208987691</v>
       </c>
@@ -4200,7 +5940,7 @@
         <f>SUM(C7:$C$29)</f>
         <v>15162543868</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="17">
         <f t="shared" si="2"/>
         <v>0.9409227504736889</v>
       </c>
@@ -4230,11 +5970,11 @@
         <f>SUM($C$4:C8)/$C$32</f>
         <v>0.10111685180608677</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>0.19230769230769232</v>
       </c>
@@ -4246,11 +5986,11 @@
         <f t="shared" si="4"/>
         <v>3.0685608107889539E-3</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="18">
         <f>SUM(D8:$D$29)</f>
         <v>149475</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
         <v>0.5965517929479377</v>
       </c>
@@ -4258,7 +5998,7 @@
         <f>SUM(C8:$C$29)</f>
         <v>14855267052</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="17">
         <f t="shared" si="2"/>
         <v>0.92185446289710993</v>
       </c>
@@ -4288,11 +6028,11 @@
         <f>SUM($C$4:C9)/$C$32</f>
         <v>0.1279567556215622</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
@@ -4304,11 +6044,11 @@
         <f t="shared" si="4"/>
         <v>4.0981048035073232E-3</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="18">
         <f>SUM(D9:$D$29)</f>
         <v>139636</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="16">
         <f t="shared" si="1"/>
         <v>0.55728453694650093</v>
       </c>
@@ -4316,7 +6056,7 @@
         <f>SUM(C9:$C$29)</f>
         <v>14485094722</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="17">
         <f t="shared" si="2"/>
         <v>0.89888314819391324</v>
       </c>
@@ -4346,11 +6086,11 @@
         <f>SUM($C$4:C10)/$C$32</f>
         <v>0.15819889885863866</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>0.26923076923076927</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>0.26923076923076927</v>
       </c>
@@ -4362,11 +6102,11 @@
         <f t="shared" si="4"/>
         <v>5.2267371491895812E-3</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="18">
         <f>SUM(D10:$D$29)</f>
         <v>129481</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="16">
         <f t="shared" si="1"/>
         <v>0.5167561311436154</v>
       </c>
@@ -4374,7 +6114,7 @@
         <f>SUM(C10:$C$29)</f>
         <v>14052581831</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="17">
         <f t="shared" si="2"/>
         <v>0.87204324437843783</v>
       </c>
@@ -4404,11 +6144,11 @@
         <f>SUM($C$4:C11)/$C$32</f>
         <v>0.19055207066140237</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
         <v>0.30769230769230771</v>
       </c>
@@ -4420,11 +6160,11 @@
         <f t="shared" si="4"/>
         <v>6.2625461568009818E-3</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="18">
         <f>SUM(D11:$D$29)</f>
         <v>119246</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>0.47590844690998346</v>
       </c>
@@ -4432,7 +6172,7 @@
         <f>SUM(C11:$C$29)</f>
         <v>13565243393</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="17">
         <f t="shared" si="2"/>
         <v>0.84180110114136131</v>
       </c>
@@ -4462,11 +6202,11 @@
         <f>SUM($C$4:C12)/$C$32</f>
         <v>0.22698588736703129</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>0.34615384615384615</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>0.34615384615384615</v>
       </c>
@@ -4478,11 +6218,11 @@
         <f t="shared" si="4"/>
         <v>7.7554726981221627E-3</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="18">
         <f>SUM(D12:$D$29)</f>
         <v>109327</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="16">
         <f t="shared" si="1"/>
         <v>0.43632191247780017</v>
       </c>
@@ -4490,7 +6230,7 @@
         <f>SUM(C12:$C$29)</f>
         <v>13043886686</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="17">
         <f t="shared" si="2"/>
         <v>0.80944792933859766</v>
       </c>
@@ -4520,11 +6260,11 @@
         <f>SUM($C$4:C13)/$C$32</f>
         <v>0.26286716796907017</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <f t="shared" si="0"/>
         <v>0.38461538461538458</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>0.38461538461538458</v>
       </c>
@@ -4536,11 +6276,11 @@
         <f t="shared" si="4"/>
         <v>8.3741046946733989E-3</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="18">
         <f>SUM(D13:$D$29)</f>
         <v>99129</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="16">
         <f t="shared" si="1"/>
         <v>0.39562189451838842</v>
       </c>
@@ -4548,7 +6288,7 @@
         <f>SUM(C13:$C$29)</f>
         <v>12456772235</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="17">
         <f t="shared" si="2"/>
         <v>0.77301411263296871</v>
       </c>
@@ -4578,11 +6318,11 @@
         <f>SUM($C$4:C14)/$C$32</f>
         <v>0.2987640192849676</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>0.42307692307692302</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>0.42307692307692302</v>
       </c>
@@ -4594,11 +6334,11 @@
         <f t="shared" si="4"/>
         <v>8.9876200905594176E-3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="18">
         <f>SUM(D14:$D$29)</f>
         <v>89885</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="16">
         <f t="shared" si="1"/>
         <v>0.35872927184562886</v>
       </c>
@@ -4606,7 +6346,7 @@
         <f>SUM(C14:$C$29)</f>
         <v>11878561653</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="17">
         <f t="shared" si="2"/>
         <v>0.73713283203092983</v>
       </c>
@@ -4636,11 +6376,11 @@
         <f>SUM($C$4:C15)/$C$32</f>
         <v>0.33464536845858972</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="13">
         <f t="shared" si="0"/>
         <v>0.46153846153846145</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>0.46153846153846145</v>
       </c>
@@ -4652,11 +6392,11 @@
         <f t="shared" si="4"/>
         <v>9.5078893292292656E-3</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="18">
         <f>SUM(D15:$D$29)</f>
         <v>81318</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="16">
         <f t="shared" si="1"/>
         <v>0.32453854289306167</v>
       </c>
@@ -4664,7 +6404,7 @@
         <f>SUM(C15:$C$29)</f>
         <v>11300100156</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="17">
         <f t="shared" si="2"/>
         <v>0.70123598071503246</v>
       </c>
@@ -4694,11 +6434,11 @@
         <f>SUM($C$4:C16)/$C$32</f>
         <v>0.36865560992837443</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <f t="shared" si="0"/>
         <v>0.49999999999999989</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>0.49999999999999989</v>
       </c>
@@ -4710,11 +6450,11 @@
         <f t="shared" si="4"/>
         <v>9.4410955625637005E-3</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="18">
         <f>SUM(D16:$D$29)</f>
         <v>73344</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="16">
         <f t="shared" si="1"/>
         <v>0.292714465308403</v>
       </c>
@@ -4722,7 +6462,7 @@
         <f>SUM(C16:$C$29)</f>
         <v>10721888469</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="17">
         <f t="shared" si="2"/>
         <v>0.66535463154141028</v>
       </c>
@@ -4752,11 +6492,11 @@
         <f>SUM($C$4:C17)/$C$32</f>
         <v>0.40129947919880654</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="13">
         <f t="shared" si="0"/>
         <v>0.53846153846153832</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>0.53846153846153832</v>
       </c>
@@ -4768,11 +6508,11 @@
         <f t="shared" si="4"/>
         <v>9.3795203372114399E-3</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="18">
         <f>SUM(D17:$D$29)</f>
         <v>66275</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="16">
         <f t="shared" si="1"/>
         <v>0.26450222497156428</v>
       </c>
@@ -4780,7 +6520,7 @@
         <f>SUM(C17:$C$29)</f>
         <v>10173828835</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="17">
         <f t="shared" si="2"/>
         <v>0.63134439007162557</v>
       </c>
@@ -4810,11 +6550,11 @@
         <f>SUM($C$4:C18)/$C$32</f>
         <v>0.43250922766973687</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="13">
         <f t="shared" si="0"/>
         <v>0.57692307692307676</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="13">
         <f t="shared" si="0"/>
         <v>0.57692307692307676</v>
       </c>
@@ -4826,11 +6566,11 @@
         <f t="shared" si="4"/>
         <v>9.2010676191692665E-3</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="18">
         <f>SUM(D18:$D$29)</f>
         <v>59900</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="16">
         <f t="shared" si="1"/>
         <v>0.23905972502145151</v>
       </c>
@@ -4838,7 +6578,7 @@
         <f>SUM(C18:$C$29)</f>
         <v>9647787670</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="17">
         <f t="shared" si="2"/>
         <v>0.59870052080119351</v>
       </c>
@@ -4868,11 +6608,11 @@
         <f>SUM($C$4:C19)/$C$32</f>
         <v>0.46170018237387023</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="13">
         <f t="shared" si="0"/>
         <v>0.6153846153846152</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>0.6153846153846152</v>
       </c>
@@ -4884,11 +6624,11 @@
         <f t="shared" si="4"/>
         <v>8.7791269009170787E-3</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="18">
         <f>SUM(D19:$D$29)</f>
         <v>54155</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="16">
         <f t="shared" si="1"/>
         <v>0.21613154271346757</v>
       </c>
@@ -4896,7 +6636,7 @@
         <f>SUM(C19:$C$29)</f>
         <v>9144856712</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="17">
         <f t="shared" si="2"/>
         <v>0.56749077233026313</v>
       </c>
@@ -4926,11 +6666,11 @@
         <f>SUM($C$4:C20)/$C$32</f>
         <v>0.48901638800589997</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <f t="shared" si="0"/>
         <v>0.65384615384615363</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>0.65384615384615363</v>
       </c>
@@ -4942,11 +6682,11 @@
         <f t="shared" si="4"/>
         <v>8.3158179436603925E-3</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="18">
         <f>SUM(D20:$D$29)</f>
         <v>49069</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="16">
         <f t="shared" si="1"/>
         <v>0.19583341647875802</v>
       </c>
@@ -4954,7 +6694,7 @@
         <f>SUM(C20:$C$29)</f>
         <v>8674457701</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="17">
         <f t="shared" si="2"/>
         <v>0.53829981762612977</v>
       </c>
@@ -4984,11 +6724,11 @@
         <f>SUM($C$4:C21)/$C$32</f>
         <v>0.58253640571268872</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="13">
         <f t="shared" si="0"/>
         <v>0.69230769230769207</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="13">
         <f t="shared" si="0"/>
         <v>0.69230769230769207</v>
       </c>
@@ -5000,11 +6740,11 @@
         <f t="shared" si="4"/>
         <v>2.68957549662136E-2</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="18">
         <f>SUM(D21:$D$29)</f>
         <v>44556</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="16">
         <f t="shared" si="1"/>
         <v>0.17782212200427036</v>
       </c>
@@ -5012,7 +6752,7 @@
         <f>SUM(C21:$C$29)</f>
         <v>8234269422</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="17">
         <f t="shared" si="2"/>
         <v>0.51098361199410003</v>
       </c>
@@ -5042,11 +6782,11 @@
         <f>SUM($C$4:C22)/$C$32</f>
         <v>0.68065722591720934</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="13">
         <f t="shared" si="0"/>
         <v>0.7307692307692305</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="13">
         <f t="shared" si="0"/>
         <v>0.7307692307692305</v>
       </c>
@@ -5058,11 +6798,11 @@
         <f t="shared" si="4"/>
         <v>2.7549962715045426E-2</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="18">
         <f>SUM(D22:$D$29)</f>
         <v>30775</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="16">
         <f t="shared" si="1"/>
         <v>0.12282242132779918</v>
       </c>
@@ -5070,7 +6810,7 @@
         <f>SUM(C22:$C$29)</f>
         <v>6727236703</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="17">
         <f t="shared" si="2"/>
         <v>0.41746359428731122</v>
       </c>
@@ -5100,11 +6840,11 @@
         <f>SUM($C$4:C23)/$C$32</f>
         <v>0.78088873455995289</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="13">
         <f t="shared" si="0"/>
         <v>0.76923076923076894</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="13">
         <f t="shared" si="0"/>
         <v>0.76923076923076894</v>
       </c>
@@ -5116,11 +6856,11 @@
         <f t="shared" si="4"/>
         <v>2.5619213767386507E-2</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="18">
         <f>SUM(D23:$D$29)</f>
         <v>18925</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="16">
         <f t="shared" si="1"/>
         <v>7.5529303773471959E-2</v>
       </c>
@@ -5128,7 +6868,7 @@
         <f>SUM(C23:$C$29)</f>
         <v>5146064136</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="17">
         <f t="shared" si="2"/>
         <v>0.31934277408279071</v>
       </c>
@@ -5158,11 +6898,11 @@
         <f>SUM($C$4:C24)/$C$32</f>
         <v>0.86888446225071081</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="13">
         <f t="shared" si="0"/>
         <v>0.80769230769230738</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="13">
         <f t="shared" si="0"/>
         <v>0.80769230769230738</v>
       </c>
@@ -5174,11 +6914,11 @@
         <f t="shared" si="4"/>
         <v>1.8530778104258357E-2</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="18">
         <f>SUM(D24:$D$29)</f>
         <v>9494</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="16">
         <f t="shared" si="1"/>
         <v>3.7890367768842415E-2</v>
       </c>
@@ -5186,7 +6926,7 @@
         <f>SUM(C24:$C$29)</f>
         <v>3530878781</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="17">
         <f t="shared" si="2"/>
         <v>0.21911126544004705</v>
       </c>
@@ -5216,11 +6956,11 @@
         <f>SUM($C$4:C25)/$C$32</f>
         <v>0.90632792856170452</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="13">
         <f t="shared" si="0"/>
         <v>0.84615384615384581</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="13">
         <f t="shared" si="0"/>
         <v>0.84615384615384581</v>
       </c>
@@ -5232,11 +6972,11 @@
         <f t="shared" si="4"/>
         <v>6.1239596924340597E-3</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="18">
         <f>SUM(D25:$D$29)</f>
         <v>3548</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="16">
         <f t="shared" si="1"/>
         <v>1.4159998403607847E-2</v>
       </c>
@@ -5244,7 +6984,7 @@
         <f>SUM(C25:$C$29)</f>
         <v>2112867493</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="17">
         <f t="shared" si="2"/>
         <v>0.13111553774928922</v>
       </c>
@@ -5274,11 +7014,11 @@
         <f>SUM($C$4:C26)/$C$32</f>
         <v>0.92665698251440032</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="13">
         <f t="shared" si="0"/>
         <v>0.88461538461538425</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="13">
         <f t="shared" si="0"/>
         <v>0.88461538461538425</v>
       </c>
@@ -5290,11 +7030,11 @@
         <f t="shared" si="4"/>
         <v>2.6694470946802126E-3</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="18">
         <f>SUM(D26:$D$29)</f>
         <v>1782</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="16">
         <f t="shared" si="1"/>
         <v>7.1119270448785745E-3</v>
       </c>
@@ -5302,7 +7042,7 @@
         <f>SUM(C26:$C$29)</f>
         <v>1509482996</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="17">
         <f t="shared" si="2"/>
         <v>9.3672071438295437E-2</v>
       </c>
@@ -5332,11 +7072,11 @@
         <f>SUM($C$4:C27)/$C$32</f>
         <v>0.96067168523277524</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="13">
         <f t="shared" si="0"/>
         <v>0.92307692307692268</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="13">
         <f t="shared" si="0"/>
         <v>0.92307692307692268</v>
       </c>
@@ -5348,11 +7088,11 @@
         <f t="shared" si="4"/>
         <v>3.0362795388195795E-3</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="18">
         <f>SUM(D27:$D$29)</f>
         <v>1044</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="16">
         <f t="shared" si="1"/>
         <v>4.1665835212419929E-3</v>
       </c>
@@ -5360,7 +7100,7 @@
         <f>SUM(C27:$C$29)</f>
         <v>1181889501</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="17">
         <f t="shared" si="2"/>
         <v>7.334301748559964E-2</v>
       </c>
@@ -5390,11 +7130,11 @@
         <f>SUM($C$4:C28)/$C$32</f>
         <v>0.97412622442991403</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <f t="shared" si="0"/>
         <v>0.96153846153846112</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="13">
         <f t="shared" si="0"/>
         <v>0.96153846153846112</v>
       </c>
@@ -5406,11 +7146,11 @@
         <f t="shared" si="4"/>
         <v>6.2111153995048616E-4</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="18">
         <f>SUM(D28:$D$29)</f>
         <v>223</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="16">
         <f t="shared" si="1"/>
         <v>8.8998862570590471E-4</v>
       </c>
@@ -5418,7 +7158,7 @@
         <f>SUM(C28:$C$29)</f>
         <v>633757976</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="17">
         <f t="shared" si="2"/>
         <v>3.9328314767224794E-2</v>
       </c>
@@ -5448,11 +7188,11 @@
         <f>SUM($C$4:C29)/$C$32</f>
         <v>1</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="13">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="13">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
@@ -5464,11 +7204,11 @@
         <f t="shared" si="4"/>
         <v>2.3715083786736389E-4</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="18">
         <f>SUM(D29:$D$29)</f>
         <v>61</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="16">
         <f t="shared" si="1"/>
         <v>2.4344980344421607E-4</v>
       </c>
@@ -5476,7 +7216,7 @@
         <f>SUM(C29:$C$29)</f>
         <v>416944172</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="17">
         <f t="shared" si="2"/>
         <v>2.5873775570085945E-2</v>
       </c>
@@ -5497,8 +7237,8 @@
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
@@ -5538,7 +7278,7 @@
         <v>0.11360583823079992</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +7287,7 @@
         <v>0.21471904349262805</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>18</v>
       </c>
@@ -5556,7 +7296,7 @@
         <v>0.23046633554467313</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>19</v>
       </c>
@@ -5565,13 +7305,1107 @@
         <v>0.53906732891065379</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="30"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <f t="shared" ref="A41:A65" si="6">LOG(E4)</f>
+        <v>3.7722955399279523</v>
+      </c>
+      <c r="B41">
+        <f xml:space="preserve"> LOG(1-F4)</f>
+        <v>-0.14348627768580327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>4.3556337674688406</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:B65" si="7" xml:space="preserve"> LOG(1-F5)</f>
+        <v>-0.16857623963281418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>4.4411644681101272</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>-0.19779924270011631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>4.5132945165813325</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="7"/>
+        <v>-0.22435184467592204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>4.5754529919949274</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="7"/>
+        <v>-0.25392300720752736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>4.6293191283530346</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="7"/>
+        <v>-0.28671436190716915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <f t="shared" si="6"/>
+        <v>4.6777428199808533</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="7"/>
+        <v>-0.32247658683007402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>4.7206670746380448</v>
+      </c>
+      <c r="B48">
+        <f xml:space="preserve"> LOG(1-F11)</f>
+        <v>-0.36019297580706788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <f t="shared" si="6"/>
+        <v>4.7602077624282391</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="7"/>
+        <v>-0.40271968167192423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <f t="shared" si="6"/>
+        <v>4.7962260987499015</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="7"/>
+        <v>-0.44523318400886275</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <f t="shared" si="6"/>
+        <v>4.8294456902556702</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="7"/>
+        <v>-0.48873371805696725</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <f t="shared" si="6"/>
+        <v>4.8604106341962865</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="7"/>
+        <v>-0.53355581515285122</v>
+      </c>
+      <c r="F52">
+        <f>E29/A29</f>
+        <v>3.4175734715411332</v>
+      </c>
+      <c r="G52">
+        <f>F52/(F52-1)</f>
+        <v>1.4136378942653307</v>
+      </c>
+      <c r="H52">
+        <f>A29*((D29/D30)^(1/G52))</f>
+        <v>5556.4227026976187</v>
+      </c>
+      <c r="I52">
+        <f>H52/(0.01^(1/G52))</f>
+        <v>144405.83496934638</v>
+      </c>
+      <c r="J52">
+        <f>I52*F52*0.01*D32</f>
+        <v>1236582250.9790702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <f t="shared" si="6"/>
+        <v>4.8894698346845153</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="7"/>
+        <v>-0.5775706703629786</v>
+      </c>
+      <c r="J53">
+        <f>J52/C30</f>
+        <v>7.6737016090931601E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <f t="shared" si="6"/>
+        <v>4.9165395418021651</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="7"/>
+        <v>-0.6214935843787982</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <f t="shared" si="6"/>
+        <v>4.9422183364895664</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="7"/>
+        <v>-0.66528184659785017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <f t="shared" si="6"/>
+        <v>4.9660900441380562</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="7"/>
+        <v>-0.70811319938648543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <f t="shared" si="6"/>
+        <v>4.9891731407867042</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="7"/>
+        <v>-0.75001421149432579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <f t="shared" si="6"/>
+        <v>5.0388419486119664</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="7"/>
+        <v>-0.9107223451647557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <f t="shared" si="6"/>
+        <v>5.1252609204754087</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="7"/>
+        <v>-1.1218845185959989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <f t="shared" si="6"/>
+        <v>5.2336646233210313</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="7"/>
+        <v>-1.4214711793857677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <f t="shared" si="6"/>
+        <v>5.3774547831689601</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="7"/>
+        <v>-1.8489367956084217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <f t="shared" si="6"/>
+        <v>5.5336034482383756</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="7"/>
+        <v>-2.148012707067251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <f t="shared" si="6"/>
+        <v>5.6472789075972889</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="7"/>
+        <v>-2.380219908101866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <f t="shared" si="6"/>
+        <v>5.8245416234964953</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="7"/>
+        <v>-3.0506155437199589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <f t="shared" si="6"/>
+        <v>6.1265719146621898</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="7"/>
+        <v>-3.6135905717572601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="30"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <f>LOG(A5)</f>
+        <v>4.3010517098452263</v>
+      </c>
+      <c r="C71">
+        <f>LOG(1-F5)</f>
+        <v>-0.16857623963281418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <f t="shared" ref="B72:B94" si="8">LOG(A6)</f>
+        <v>4.3979573801038878</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:C94" si="9">LOG(1-F6)</f>
+        <v>-0.19779924270011631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>4.4771357309611233</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="9"/>
+        <v>-0.22435184467592204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>4.5440804525867851</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="9"/>
+        <v>-0.25392300720752736</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>4.6020708485542956</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="9"/>
+        <v>-0.28671436190716915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>4.653222164656599</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="9"/>
+        <v>-0.32247658683007402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>4.6989786901387989</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="9"/>
+        <v>-0.36019297580706788</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>4.7403705856857679</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="9"/>
+        <v>-0.40271968167192423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>4.7781584885646904</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="9"/>
+        <v>-0.44523318400886275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>4.8129200380450277</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="9"/>
+        <v>-0.48873371805696725</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81">
+        <f t="shared" si="8"/>
+        <v>4.8451042441768255</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="9"/>
+        <v>-0.53355581515285122</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82">
+        <f t="shared" si="8"/>
+        <v>4.8750670539461884</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="9"/>
+        <v>-0.5775706703629786</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>4.9030954156390383</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="9"/>
+        <v>-0.6214935843787982</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>4.9294240350310838</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="9"/>
+        <v>-0.66528184659785017</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>4.9542473349067597</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="9"/>
+        <v>-0.70811319938648543</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>4.9777281767856492</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="9"/>
+        <v>-0.75001421149432579</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>5.0000043429231047</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="9"/>
+        <v>-0.9107223451647557</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>5.0791848651532279</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="9"/>
+        <v>-1.1218845185959989</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>5.176094154342576</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="9"/>
+        <v>-1.4214711793857677</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>5.3010321671309617</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="9"/>
+        <v>-1.8489367956084217</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>5.4771227023655227</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="9"/>
+        <v>-2.148012707067251</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92">
+        <f t="shared" si="8"/>
+        <v>5.6020610770628103</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="9"/>
+        <v>-2.380219908101866</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <f t="shared" si="8"/>
+        <v>5.6989708729241144</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="9"/>
+        <v>-3.0506155437199589</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <f t="shared" si="8"/>
+        <v>6.0000004342942646</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="9"/>
+        <v>-3.6135905717572601</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95">
+        <f>LOG(A29)</f>
+        <v>6.3010302128111677</v>
+      </c>
+      <c r="C95">
+        <f>LOG(1)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F50:J50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100B010-F934-41A3-88FF-308B180726C1}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.92313721029489104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0.85218230903103387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0.84575545290194842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0.37116301518184985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>18.266835778883362</v>
+      </c>
+      <c r="D12">
+        <v>18.266835778883362</v>
+      </c>
+      <c r="E12">
+        <v>132.59707264557923</v>
+      </c>
+      <c r="F12">
+        <v>5.0116133691544345E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>3.1685256282942884</v>
+      </c>
+      <c r="D13">
+        <v>0.13776198383888211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="22">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22">
+        <v>21.435361407177652</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>7.7313593280918838</v>
+      </c>
+      <c r="C17">
+        <v>0.75719736484209588</v>
+      </c>
+      <c r="D17">
+        <v>10.210494234490849</v>
+      </c>
+      <c r="E17">
+        <v>5.1526322468997036E-10</v>
+      </c>
+      <c r="F17">
+        <v>6.1649772367220326</v>
+      </c>
+      <c r="G17">
+        <v>9.2977414194617349</v>
+      </c>
+      <c r="H17">
+        <v>6.1649772367220326</v>
+      </c>
+      <c r="I17">
+        <v>9.2977414194617349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="22">
+        <v>-1.755910322988903</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.15248789311920663</v>
+      </c>
+      <c r="D18" s="22">
+        <v>-11.515080227492088</v>
+      </c>
+      <c r="E18" s="22">
+        <v>5.0116133691544164E-11</v>
+      </c>
+      <c r="F18" s="22">
+        <v>-2.0713555635867165</v>
+      </c>
+      <c r="G18" s="22">
+        <v>-1.4404650823910896</v>
+      </c>
+      <c r="H18" s="22">
+        <v>-2.0713555635867165</v>
+      </c>
+      <c r="I18" s="22">
+        <v>-1.4404650823910896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1.1075466481673946</v>
+      </c>
+      <c r="C25">
+        <v>-1.2510329258531978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>8.3257032634299399E-2</v>
+      </c>
+      <c r="C26">
+        <v>-0.25183327226711361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>-6.6927207554209112E-2</v>
+      </c>
+      <c r="C27">
+        <v>-0.1308720351459072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>-0.19358110426248842</v>
+      </c>
+      <c r="C28">
+        <v>-3.0770740413433612E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>-0.30272581290247125</v>
+      </c>
+      <c r="C29">
+        <v>4.8802805694943885E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>-0.39730991779319957</v>
+      </c>
+      <c r="C30">
+        <v>0.11059555588603043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>-0.48233757779971853</v>
+      </c>
+      <c r="C31">
+        <v>0.15986099096964451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>-0.55770871965888524</v>
+      </c>
+      <c r="C32">
+        <v>0.19751574385181736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>-0.62713862152776834</v>
+      </c>
+      <c r="C33">
+        <v>0.2244189398558441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>-0.69038359009186223</v>
+      </c>
+      <c r="C34">
+        <v>0.24515040608299948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>-0.74871421374231595</v>
+      </c>
+      <c r="C35">
+        <v>0.2599804956853487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>-0.8030858784584165</v>
+      </c>
+      <c r="C36">
+        <v>0.26953006330556528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>-0.85411122857350108</v>
+      </c>
+      <c r="C37">
+        <v>0.27654055821052248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>-0.90164320674166909</v>
+      </c>
+      <c r="C38">
+        <v>0.28014962236287089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>-0.94673286741518936</v>
+      </c>
+      <c r="C39">
+        <v>0.28145102081733919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>-0.98864944530254562</v>
+      </c>
+      <c r="C40">
+        <v>0.28053624591606019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>-1.0291812929944584</v>
+      </c>
+      <c r="C41">
+        <v>0.27916708150013259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>-1.1163952653853872</v>
+      </c>
+      <c r="C42">
+        <v>0.20567292022063155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>-1.2681392301824932</v>
+      </c>
+      <c r="C43">
+        <v>0.14625471158649428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>-1.4584864110593436</v>
+      </c>
+      <c r="C44">
+        <v>3.7015231673575899E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>-1.710969037080547</v>
+      </c>
+      <c r="C45">
+        <v>-0.13796775852787468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>-1.9851520899968698</v>
+      </c>
+      <c r="C46">
+        <v>-0.16286061707038124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>-2.1847560025556909</v>
+      </c>
+      <c r="C47">
+        <v>-0.1954639055461751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>-2.4960134352841568</v>
+      </c>
+      <c r="C48">
+        <v>-0.55460210843580215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="22">
+        <v>25</v>
+      </c>
+      <c r="B49" s="22">
+        <v>-3.0263515413973447</v>
+      </c>
+      <c r="C49" s="22">
+        <v>-0.58723903035991531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exercices/exercices_gini_afc2022.xlsx
+++ b/exercices/exercices_gini_afc2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\Documents\GitHub\les-mesures-de-l-conomie\exercices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gueney\Documents\GitHub\les-mesures-de-l-conomie\exercices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40A48EC-71E7-4CFC-81FF-939C9990F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989207DF-CA5C-42E1-85C4-591C7C461E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{0A857FEE-5B62-478B-B26F-1439DD0DBBE3}"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="GE" sheetId="3" r:id="rId3"/>
     <sheet name="alpha coef GE" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1312,6 +1323,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8519865499661204E-2"/>
+          <c:y val="0.76566477379298203"/>
+          <c:w val="0.8962984274469582"/>
+          <c:h val="0.21550918150229617"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3456,16 +3477,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>502441</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569116</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1366838</xdr:rowOff>
+      <xdr:rowOff>2230438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>504823</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>574673</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3492,16 +3513,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>427037</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3981448</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3571,9 +3592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3611,7 +3632,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3717,7 +3738,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3859,7 +3880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3873,14 +3894,14 @@
       <selection activeCell="A2" activeCellId="2" sqref="A3 C2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -3901,21 +3922,21 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.59765625" customWidth="1"/>
-    <col min="7" max="7" width="39.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.59765625" customWidth="1"/>
-    <col min="10" max="10" width="20.265625" customWidth="1"/>
-    <col min="12" max="12" width="67.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.265625" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="39.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
+    <col min="12" max="12" width="67.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
@@ -3935,7 +3956,7 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
     </row>
-    <row r="2" spans="1:17" ht="171" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +4003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4007,7 +4028,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4062,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>20001</v>
       </c>
@@ -4120,7 +4141,7 @@
         <v>0.98089585309539973</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25001</v>
       </c>
@@ -4178,7 +4199,7 @@
         <v>0.96840446418151849</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30001</v>
       </c>
@@ -4236,7 +4257,7 @@
         <v>0.95248291794930184</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>35001</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>0.93410636653431389</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40001</v>
       </c>
@@ -4352,7 +4373,7 @@
         <v>0.91004984352954654</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>45001</v>
       </c>
@@ -4410,7 +4431,7 @@
         <v>0.87844468918359042</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50001</v>
       </c>
@@ -4468,7 +4489,7 @@
         <v>0.84037767239906014</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>55001</v>
       </c>
@@ -4526,7 +4547,7 @@
         <v>0.79864797463644943</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>60001</v>
       </c>
@@ -4584,7 +4605,7 @@
         <v>0.75568089851946385</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>65001</v>
       </c>
@@ -4642,7 +4663,7 @@
         <v>0.71348064754011409</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>70001</v>
       </c>
@@ -4700,7 +4721,7 @@
         <v>0.67264165900827766</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75001</v>
       </c>
@@ -4758,7 +4779,7 @@
         <v>0.63369903651969928</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>80001</v>
       </c>
@@ -4816,7 +4837,7 @@
         <v>0.59648366659516738</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>85001</v>
       </c>
@@ -4874,7 +4895,7 @@
         <v>0.56095505372039822</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90001</v>
       </c>
@@ -4932,7 +4953,7 @@
         <v>0.52708213649413505</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>95001</v>
       </c>
@@ -4990,7 +5011,7 @@
         <v>0.49450853049247107</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>100001</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>0.46352688881679166</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>120001</v>
       </c>
@@ -5106,7 +5127,7 @@
         <v>0.35762880548821618</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>150001</v>
       </c>
@@ -5164,7 +5185,7 @@
         <v>0.25279345891274818</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>200001</v>
       </c>
@@ -5222,7 +5243,7 @@
         <v>0.16215472373056269</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>300001</v>
       </c>
@@ -5280,7 +5301,7 @@
         <v>9.4056873898511625E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>400001</v>
       </c>
@@ -5338,7 +5359,7 @@
         <v>6.6707682992984421E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>500001</v>
       </c>
@@ -5396,7 +5417,7 @@
         <v>5.2219942358268129E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1000001</v>
       </c>
@@ -5454,7 +5475,7 @@
         <v>2.7334407515904005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2000001</v>
       </c>
@@ -5512,7 +5533,7 @@
         <v>1.6073385443575998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>23</v>
       </c>
@@ -5533,7 +5554,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N31" t="s">
         <v>25</v>
       </c>
@@ -5542,7 +5563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5590,7 @@
         <v>9.4291132404414987E-2</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I33" t="s">
         <v>16</v>
       </c>
@@ -5578,7 +5599,7 @@
         <v>0.25720121848286576</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I34" t="s">
         <v>18</v>
       </c>
@@ -5587,7 +5608,7 @@
         <v>0.27657368234858093</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I35" t="s">
         <v>19</v>
       </c>
@@ -5610,21 +5631,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988134C0-BA93-4AA9-AB60-815506C21888}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.265625" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
@@ -5644,7 +5665,7 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
     </row>
-    <row r="2" spans="1:17" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5691,7 +5712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5716,7 +5737,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>0</v>
       </c>
@@ -5771,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>20001</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>0.97410271505044177</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25001</v>
       </c>
@@ -5887,7 +5908,7 @@
         <v>0.95987677743827726</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30001</v>
       </c>
@@ -5945,7 +5966,7 @@
         <v>0.9409227504736889</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>35001</v>
       </c>
@@ -6003,7 +6024,7 @@
         <v>0.92185446289710993</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40001</v>
       </c>
@@ -6061,7 +6082,7 @@
         <v>0.89888314819391324</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>45001</v>
       </c>
@@ -6119,7 +6140,7 @@
         <v>0.87204324437843783</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50001</v>
       </c>
@@ -6177,7 +6198,7 @@
         <v>0.84180110114136131</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>55001</v>
       </c>
@@ -6235,7 +6256,7 @@
         <v>0.80944792933859766</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>60001</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>0.77301411263296871</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>65001</v>
       </c>
@@ -6351,7 +6372,7 @@
         <v>0.73713283203092983</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>70001</v>
       </c>
@@ -6409,7 +6430,7 @@
         <v>0.70123598071503246</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75001</v>
       </c>
@@ -6467,7 +6488,7 @@
         <v>0.66535463154141028</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>80001</v>
       </c>
@@ -6525,7 +6546,7 @@
         <v>0.63134439007162557</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>85001</v>
       </c>
@@ -6583,7 +6604,7 @@
         <v>0.59870052080119351</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>90001</v>
       </c>
@@ -6641,7 +6662,7 @@
         <v>0.56749077233026313</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>95001</v>
       </c>
@@ -6699,7 +6720,7 @@
         <v>0.53829981762612977</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>100001</v>
       </c>
@@ -6757,7 +6778,7 @@
         <v>0.51098361199410003</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>120001</v>
       </c>
@@ -6815,7 +6836,7 @@
         <v>0.41746359428731122</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>150001</v>
       </c>
@@ -6873,7 +6894,7 @@
         <v>0.31934277408279071</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>200001</v>
       </c>
@@ -6931,7 +6952,7 @@
         <v>0.21911126544004705</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>300001</v>
       </c>
@@ -6989,7 +7010,7 @@
         <v>0.13111553774928922</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>400001</v>
       </c>
@@ -7047,7 +7068,7 @@
         <v>9.3672071438295437E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>500001</v>
       </c>
@@ -7105,7 +7126,7 @@
         <v>7.334301748559964E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1000001</v>
       </c>
@@ -7163,7 +7184,7 @@
         <v>3.9328314767224794E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2000001</v>
       </c>
@@ -7221,7 +7242,7 @@
         <v>2.5873775570085945E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>23</v>
       </c>
@@ -7242,7 +7263,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N31" t="s">
         <v>25</v>
       </c>
@@ -7251,7 +7272,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -7274,11 +7295,11 @@
         <v>17</v>
       </c>
       <c r="O32" s="10">
-        <f>O27+((O26-O27)*(0.01-M27)/(M26-M27))</f>
-        <v>0.11360583823079992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+        <f>O26+((O25-O26)*(0.01-M26)/(M25-M26))</f>
+        <v>0.10901519963532298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I33" t="s">
         <v>16</v>
       </c>
@@ -7287,7 +7308,7 @@
         <v>0.21471904349262805</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I34" t="s">
         <v>18</v>
       </c>
@@ -7296,7 +7317,7 @@
         <v>0.23046633554467313</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I35" t="s">
         <v>19</v>
       </c>
@@ -7305,13 +7326,13 @@
         <v>0.53906732891065379</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="30"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -7319,7 +7340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ref="A41:A65" si="6">LOG(E4)</f>
         <v>3.7722955399279523</v>
@@ -7329,7 +7350,7 @@
         <v>-0.14348627768580327</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="6"/>
         <v>4.3556337674688406</v>
@@ -7339,7 +7360,7 @@
         <v>-0.16857623963281418</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="6"/>
         <v>4.4411644681101272</v>
@@ -7349,7 +7370,7 @@
         <v>-0.19779924270011631</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="6"/>
         <v>4.5132945165813325</v>
@@ -7359,7 +7380,7 @@
         <v>-0.22435184467592204</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="6"/>
         <v>4.5754529919949274</v>
@@ -7369,7 +7390,7 @@
         <v>-0.25392300720752736</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="6"/>
         <v>4.6293191283530346</v>
@@ -7379,7 +7400,7 @@
         <v>-0.28671436190716915</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="6"/>
         <v>4.6777428199808533</v>
@@ -7389,7 +7410,7 @@
         <v>-0.32247658683007402</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="6"/>
         <v>4.7206670746380448</v>
@@ -7399,7 +7420,7 @@
         <v>-0.36019297580706788</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="6"/>
         <v>4.7602077624282391</v>
@@ -7409,7 +7430,7 @@
         <v>-0.40271968167192423</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="6"/>
         <v>4.7962260987499015</v>
@@ -7426,7 +7447,7 @@
       <c r="I50" s="30"/>
       <c r="J50" s="30"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="6"/>
         <v>4.8294456902556702</v>
@@ -7451,7 +7472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="6"/>
         <v>4.8604106341962865</v>
@@ -7481,7 +7502,7 @@
         <v>1236582250.9790702</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="6"/>
         <v>4.8894698346845153</v>
@@ -7495,7 +7516,7 @@
         <v>7.6737016090931601E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="6"/>
         <v>4.9165395418021651</v>
@@ -7505,7 +7526,7 @@
         <v>-0.6214935843787982</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="6"/>
         <v>4.9422183364895664</v>
@@ -7515,7 +7536,7 @@
         <v>-0.66528184659785017</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="6"/>
         <v>4.9660900441380562</v>
@@ -7525,7 +7546,7 @@
         <v>-0.70811319938648543</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="6"/>
         <v>4.9891731407867042</v>
@@ -7535,7 +7556,7 @@
         <v>-0.75001421149432579</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="6"/>
         <v>5.0388419486119664</v>
@@ -7545,7 +7566,7 @@
         <v>-0.9107223451647557</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="6"/>
         <v>5.1252609204754087</v>
@@ -7555,7 +7576,7 @@
         <v>-1.1218845185959989</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="6"/>
         <v>5.2336646233210313</v>
@@ -7565,7 +7586,7 @@
         <v>-1.4214711793857677</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="6"/>
         <v>5.3774547831689601</v>
@@ -7575,7 +7596,7 @@
         <v>-1.8489367956084217</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="6"/>
         <v>5.5336034482383756</v>
@@ -7585,7 +7606,7 @@
         <v>-2.148012707067251</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="6"/>
         <v>5.6472789075972889</v>
@@ -7595,7 +7616,7 @@
         <v>-2.380219908101866</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="6"/>
         <v>5.8245416234964953</v>
@@ -7605,7 +7626,7 @@
         <v>-3.0506155437199589</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>6.1265719146621898</v>
@@ -7615,13 +7636,13 @@
         <v>-3.6135905717572601</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="30"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>54</v>
       </c>
@@ -7629,7 +7650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71">
         <f>LOG(A5)</f>
         <v>4.3010517098452263</v>
@@ -7639,7 +7660,7 @@
         <v>-0.16857623963281418</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72">
         <f t="shared" ref="B72:B94" si="8">LOG(A6)</f>
         <v>4.3979573801038878</v>
@@ -7649,7 +7670,7 @@
         <v>-0.19779924270011631</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B73">
         <f t="shared" si="8"/>
         <v>4.4771357309611233</v>
@@ -7659,7 +7680,7 @@
         <v>-0.22435184467592204</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B74">
         <f t="shared" si="8"/>
         <v>4.5440804525867851</v>
@@ -7669,7 +7690,7 @@
         <v>-0.25392300720752736</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75">
         <f t="shared" si="8"/>
         <v>4.6020708485542956</v>
@@ -7679,7 +7700,7 @@
         <v>-0.28671436190716915</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76">
         <f t="shared" si="8"/>
         <v>4.653222164656599</v>
@@ -7689,7 +7710,7 @@
         <v>-0.32247658683007402</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B77">
         <f t="shared" si="8"/>
         <v>4.6989786901387989</v>
@@ -7699,7 +7720,7 @@
         <v>-0.36019297580706788</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B78">
         <f t="shared" si="8"/>
         <v>4.7403705856857679</v>
@@ -7709,7 +7730,7 @@
         <v>-0.40271968167192423</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B79">
         <f t="shared" si="8"/>
         <v>4.7781584885646904</v>
@@ -7719,7 +7740,7 @@
         <v>-0.44523318400886275</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B80">
         <f t="shared" si="8"/>
         <v>4.8129200380450277</v>
@@ -7729,7 +7750,7 @@
         <v>-0.48873371805696725</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81">
         <f t="shared" si="8"/>
         <v>4.8451042441768255</v>
@@ -7739,7 +7760,7 @@
         <v>-0.53355581515285122</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82">
         <f t="shared" si="8"/>
         <v>4.8750670539461884</v>
@@ -7749,7 +7770,7 @@
         <v>-0.5775706703629786</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83">
         <f t="shared" si="8"/>
         <v>4.9030954156390383</v>
@@ -7759,7 +7780,7 @@
         <v>-0.6214935843787982</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84">
         <f t="shared" si="8"/>
         <v>4.9294240350310838</v>
@@ -7769,7 +7790,7 @@
         <v>-0.66528184659785017</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85">
         <f t="shared" si="8"/>
         <v>4.9542473349067597</v>
@@ -7779,7 +7800,7 @@
         <v>-0.70811319938648543</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86">
         <f t="shared" si="8"/>
         <v>4.9777281767856492</v>
@@ -7789,7 +7810,7 @@
         <v>-0.75001421149432579</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87">
         <f t="shared" si="8"/>
         <v>5.0000043429231047</v>
@@ -7799,7 +7820,7 @@
         <v>-0.9107223451647557</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88">
         <f t="shared" si="8"/>
         <v>5.0791848651532279</v>
@@ -7809,7 +7830,7 @@
         <v>-1.1218845185959989</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89">
         <f t="shared" si="8"/>
         <v>5.176094154342576</v>
@@ -7819,7 +7840,7 @@
         <v>-1.4214711793857677</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90">
         <f t="shared" si="8"/>
         <v>5.3010321671309617</v>
@@ -7829,7 +7850,7 @@
         <v>-1.8489367956084217</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91">
         <f t="shared" si="8"/>
         <v>5.4771227023655227</v>
@@ -7839,7 +7860,7 @@
         <v>-2.148012707067251</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92">
         <f t="shared" si="8"/>
         <v>5.6020610770628103</v>
@@ -7849,7 +7870,7 @@
         <v>-2.380219908101866</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93">
         <f t="shared" si="8"/>
         <v>5.6989708729241144</v>
@@ -7859,7 +7880,7 @@
         <v>-3.0506155437199589</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94">
         <f t="shared" si="8"/>
         <v>6.0000004342942646</v>
@@ -7869,7 +7890,7 @@
         <v>-3.6135905717572601</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95">
         <f>LOG(A29)</f>
         <v>6.3010302128111677</v>
@@ -7897,25 +7918,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C100B010-F934-41A3-88FF-308B180726C1}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7923,7 +7944,7 @@
         <v>0.92313721029489104</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -7931,7 +7952,7 @@
         <v>0.85218230903103387</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -7939,7 +7960,7 @@
         <v>0.84575545290194842</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -7947,7 +7968,7 @@
         <v>0.37116301518184985</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
@@ -7955,12 +7976,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="23" t="s">
         <v>39</v>
@@ -7978,7 +7999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -7998,7 +8019,7 @@
         <v>5.0116133691544345E-11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -8012,7 +8033,7 @@
         <v>0.13776198383888211</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>37</v>
       </c>
@@ -8026,8 +8047,8 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="23" t="s">
         <v>44</v>
@@ -8054,7 +8075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -8083,7 +8104,7 @@
         <v>9.2977414194617349</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>51</v>
       </c>
@@ -8112,13 +8133,13 @@
         <v>-1.4404650823910896</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>56</v>
       </c>
@@ -8129,7 +8150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -8140,7 +8161,7 @@
         <v>-1.2510329258531978</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8151,7 +8172,7 @@
         <v>-0.25183327226711361</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -8162,7 +8183,7 @@
         <v>-0.1308720351459072</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -8173,7 +8194,7 @@
         <v>-3.0770740413433612E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8184,7 +8205,7 @@
         <v>4.8802805694943885E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8195,7 +8216,7 @@
         <v>0.11059555588603043</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7</v>
       </c>
@@ -8206,7 +8227,7 @@
         <v>0.15986099096964451</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -8217,7 +8238,7 @@
         <v>0.19751574385181736</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -8228,7 +8249,7 @@
         <v>0.2244189398558441</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -8239,7 +8260,7 @@
         <v>0.24515040608299948</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -8250,7 +8271,7 @@
         <v>0.2599804956853487</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>12</v>
       </c>
@@ -8261,7 +8282,7 @@
         <v>0.26953006330556528</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>13</v>
       </c>
@@ -8272,7 +8293,7 @@
         <v>0.27654055821052248</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>14</v>
       </c>
@@ -8283,7 +8304,7 @@
         <v>0.28014962236287089</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>15</v>
       </c>
@@ -8294,7 +8315,7 @@
         <v>0.28145102081733919</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -8305,7 +8326,7 @@
         <v>0.28053624591606019</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>17</v>
       </c>
@@ -8316,7 +8337,7 @@
         <v>0.27916708150013259</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>18</v>
       </c>
@@ -8327,7 +8348,7 @@
         <v>0.20567292022063155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>19</v>
       </c>
@@ -8338,7 +8359,7 @@
         <v>0.14625471158649428</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>20</v>
       </c>
@@ -8349,7 +8370,7 @@
         <v>3.7015231673575899E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>21</v>
       </c>
@@ -8360,7 +8381,7 @@
         <v>-0.13796775852787468</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>22</v>
       </c>
@@ -8371,7 +8392,7 @@
         <v>-0.16286061707038124</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>23</v>
       </c>
@@ -8382,7 +8403,7 @@
         <v>-0.1954639055461751</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>24</v>
       </c>
@@ -8393,7 +8414,7 @@
         <v>-0.55460210843580215</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="22">
         <v>25</v>
       </c>
